--- a/biology/Zoologie/Chuckwalla/Chuckwalla.xlsx
+++ b/biology/Zoologie/Chuckwalla/Chuckwalla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauromalus ater
-Sauromalus ater, le Chuckwalla, est une espèce de sauriens de la famille des Iguanidae[1].
+Sauromalus ater, le Chuckwalla, est une espèce de sauriens de la famille des Iguanidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Californie, au Nevada, en Utah, en Arizona et au Mexique en Basse-Californie, en Basse-Californie du Sud et au Sonora[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Californie, au Nevada, en Utah, en Arizona et au Mexique en Basse-Californie, en Basse-Californie du Sud et au Sonora.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chuckwalla fréquente les escarpements rocheux des déserts des Mojaves, de Sonora et du Grand Bassin des États-Unis et des îles de la péninsule de Basse-Californie.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chuckwalla est un grand iguane massif, d'une taille comprise entre 30 et 50 cm et pouvant peser jusqu'à 9 kg. Son corps est couvert de petites écailles granulaires et présente des plis de peau autour du cou et des épaules. La queue, épaisse, arrondie et émoussée, est aussi longue que le reste du corps.
 Les mâles ont la tête, les membres antérieurs et l'avant du tronc noirs. Leur corps, rougeâtre, peut être grisâtre ou jaunâtre vers l'arrière. Les femelles sont habituellement beaucoup plus ternes, mais leur corps, grisâtre ou brunâtre, présente quelques motifs jaunes. Le corps des jeunes est marqué de bandes foncées sur fond jaune.
@@ -606,7 +624,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chuckwallas se distinguent de la majorité des lézards en étant principalement végétariens : ils se nourrissent de bourgeons, feuilles, fleurs et fruits. Occasionnellement, ils mangent des insectes, notamment les jeunes.
 </t>
@@ -637,7 +657,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce lézard diurne vit en petites colonies dirigées par un mâle dominant. Il émerge le matin et commence par se chauffer au soleil jusqu'à ce que sa température corporelle atteigne 38 °C. Il commence alors à rechercher la nourriture.
 En cas de danger, selon une stratégie analogue à celle des lézards à collier du genre Crotaphytus, il s'insinue dans une crevasse, se gonfle d'air et devient alors quasiment impossible à déloger. Il peut également abandonner sa queue après autotomie.
@@ -669,7 +691,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La période de reproduction s'étend de mai à juin. Les femelles ne pondent que tous les deux ans de cinq à dix œufs, entre juin et août. Les jeunes, mesurant quelque 10 cm, naissent après deux mois d'incubation. La maturité sexuelle n'est atteinte que vers l'âge de trois ans (pour une longévité de 25 ans).
 </t>
@@ -700,9 +724,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 décembre 2012)[2] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 décembre 2012) :
 Sauromalus ater ater Duméril, 1856
 Sauromalus ater multiforminatus Tanner &amp; Avery, 1964
 Sauromalus ater shawi Cliff, 1958
@@ -735,7 +761,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Cliff, 1958 : A new species of Sauromalus from Mexico. Copeia, vol. 1958, n. 4, p. 259-161.
 Dickerson, 1919 : Diagnoses of twenty-three new species and a new genus of lizards from Lower California. Bulletin of the American Museum of Natural History, vol. 41, n. 10, p. 461-477 (texte intégral).
